--- a/thesis_experiments/p300/p300_exp_output/statistics.xlsx
+++ b/thesis_experiments/p300/p300_exp_output/statistics.xlsx
@@ -1,93 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itznu\PycharmProjects\use-of-snn\thesis_experiments\p300_exp_output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A9D0E-654D-463B-894E-0868BDFCAD60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>models</t>
-  </si>
-  <si>
-    <t>average_acc</t>
-  </si>
-  <si>
-    <t>max_acc</t>
-  </si>
-  <si>
-    <t>std_acc</t>
-  </si>
-  <si>
-    <t>average_precision</t>
-  </si>
-  <si>
-    <t>max_precision</t>
-  </si>
-  <si>
-    <t>average_recall</t>
-  </si>
-  <si>
-    <t>max_recall</t>
-  </si>
-  <si>
-    <t>average_f1</t>
-  </si>
-  <si>
-    <t>max_f1</t>
-  </si>
-  <si>
-    <t>ann</t>
-  </si>
-  <si>
-    <t>snn [timesteps=50, scaling=1000, synapse=0.010000]</t>
-  </si>
-  <si>
-    <t>snn [timesteps=50, scaling=1000, synapse=None]</t>
-  </si>
-  <si>
-    <t>snn [timesteps=50, scaling=1, synapse=0.010000]</t>
-  </si>
-  <si>
-    <t>snn [timesteps=50, scaling=1, synapse=None]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,225 +420,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>average_acc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>max_acc</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_acc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_precision</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>max_precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>average_recall</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_recall</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>average_f1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>max_f1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ann</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6323756720430108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6471774193548387</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0109291496708759</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6264068541694552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6510416666666666</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6607586438402148</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7573011077542799</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6421694628376341</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6778432260987767</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>snn [timesteps=50, scaling=1000, synapse=0.010000]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6333001493280239</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6470881035340965</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01018860123166669</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6269430369742859</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6510204081632653</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6619237147595356</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7641791044776119</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6429921611214074</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6811529933481153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>snn [timesteps=50, scaling=1000, synapse=None]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6334660693545711</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.646590343454455</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.009903992261044599</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.627068634435105</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6515930113052415</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6622553897180763</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7621890547263681</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6432497920582735</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6808888888888889</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>snn [timesteps=50, scaling=1, synapse=0.010000]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5182512029201924</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5500248880039821</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.01369118457865331</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5151235161164964</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.541978387364921</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6318739635157546</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.709452736318408</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5656111790087789</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.602112676056338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0.63380376344086031</v>
-      </c>
-      <c r="D2">
-        <v>0.64314516129032262</v>
-      </c>
-      <c r="E2">
-        <v>5.3139923520520091E-3</v>
-      </c>
-      <c r="F2">
-        <v>0.62610311297264309</v>
-      </c>
-      <c r="G2">
-        <v>0.66113744075829384</v>
-      </c>
-      <c r="H2">
-        <v>0.67156764014770054</v>
-      </c>
-      <c r="I2">
-        <v>0.7583081570996979</v>
-      </c>
-      <c r="J2">
-        <v>0.64646473972562979</v>
-      </c>
-      <c r="K2">
-        <v>0.67899008115419301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>0.63466069354571109</v>
-      </c>
-      <c r="D3">
-        <v>0.64410154305624689</v>
-      </c>
-      <c r="E3">
-        <v>5.525041526861927E-3</v>
-      </c>
-      <c r="F3">
-        <v>0.62651503800454711</v>
-      </c>
-      <c r="G3">
-        <v>0.66318234610917537</v>
-      </c>
-      <c r="H3">
-        <v>0.6729353233830847</v>
-      </c>
-      <c r="I3">
-        <v>0.76019900497512438</v>
-      </c>
-      <c r="J3">
-        <v>0.64734726836218237</v>
-      </c>
-      <c r="K3">
-        <v>0.68092691622103385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>0.6342624854819976</v>
-      </c>
-      <c r="D4">
-        <v>0.64360378297660525</v>
-      </c>
-      <c r="E4">
-        <v>5.8716825208160843E-3</v>
-      </c>
-      <c r="F4">
-        <v>0.62608110622871793</v>
-      </c>
-      <c r="G4">
-        <v>0.65927654609101516</v>
-      </c>
-      <c r="H4">
-        <v>0.67260364842454412</v>
-      </c>
-      <c r="I4">
-        <v>0.75820895522388054</v>
-      </c>
-      <c r="J4">
-        <v>0.64697017393173362</v>
-      </c>
-      <c r="K4">
-        <v>0.67944716897012936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0.52279741164758586</v>
-      </c>
-      <c r="D5">
-        <v>0.54355400696864109</v>
-      </c>
-      <c r="E5">
-        <v>1.1863820015739039E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.5182836447733139</v>
-      </c>
-      <c r="G5">
-        <v>0.5355535553555355</v>
-      </c>
-      <c r="H5">
-        <v>0.6614925373134326</v>
-      </c>
-      <c r="I5">
-        <v>0.76019900497512438</v>
-      </c>
-      <c r="J5">
-        <v>0.58056628684364597</v>
-      </c>
-      <c r="K5">
-        <v>0.61217948717948711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>0.52175211548033851</v>
-      </c>
-      <c r="D6">
-        <v>0.54006968641114983</v>
-      </c>
-      <c r="E6">
-        <v>1.0816012903329191E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.51739968274966186</v>
-      </c>
-      <c r="G6">
-        <v>0.534468085106383</v>
-      </c>
-      <c r="H6">
-        <v>0.66451077943615267</v>
-      </c>
-      <c r="I6">
-        <v>0.74726368159203982</v>
-      </c>
-      <c r="J6">
-        <v>0.58115221737414324</v>
-      </c>
-      <c r="K6">
-        <v>0.61231145536078269</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>snn [timesteps=50, scaling=1, synapse=None]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5195785631325701</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5450472872075659</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01192840888557529</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5164234675251682</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5391903531438416</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6379767827529024</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.718407960199005</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5688214071718872</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5955441302485005</v>
       </c>
     </row>
   </sheetData>
